--- a/biology/Botanique/Arundina/Arundina.xlsx
+++ b/biology/Botanique/Arundina/Arundina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arundina ou 'Orchidée Bambou' est un genre de la famille des Orchidaceae, de la sous-famille des Epidendroideae comptant simplement deux espèces d'orchidées[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arundina ou 'Orchidée Bambou' est un genre de la famille des Orchidaceae, de la sous-famille des Epidendroideae comptant simplement deux espèces d'orchidées. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des espèces et de leurs synonymes.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Arundina caespitosa Aver. 2007.
 Pas de synonyme connu.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Espèce très variable.
 Arundina Graminifolia ressemble à s'y méprendre, pour un œil non averti, à une plante du genre graminée lorsqu'elle n'est pas en floraison. Cette orchidée pousse de manière exubérante à l'état sauvage.</t>
@@ -577,7 +593,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Asie, depuis l'Himalaya jusqu'aux îles du Pacifique.
 Ce genre d'Asie tropicale s'étend de l'Inde, au Népal, de la Thaïlande à la Malaisie, de Singapour, Chine du Sud à l'Indonésie et à travers les îles du Pacifique. Il a été mis en place à Porto Rico, au Costa Rica et au Panama.
